--- a/Week6. DB_UML_interfaces design/Assignment6.xlsx
+++ b/Week6. DB_UML_interfaces design/Assignment6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Отметка о выполении</t>
   </si>
   <si>
-    <t>Примечения ко времени</t>
-  </si>
-  <si>
     <t>Акимутин</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Какие есть страницы, как они между собой взаимодействуют. Вместе с текстовым возможно и какое-то схемотичное отображение</t>
   </si>
   <si>
-    <t>Начертить диаграмму вариантов использования UML</t>
-  </si>
-  <si>
     <t>Представить в графическом формате интерфейсы следующих страниц:</t>
   </si>
   <si>
@@ -115,15 +109,9 @@
     <t>Страница, когда пользователь еще не зарегался, а может авторизироваться или регистрироваться</t>
   </si>
   <si>
-    <t>Главная страница</t>
-  </si>
-  <si>
     <t>Бидзиля</t>
   </si>
   <si>
-    <t>Страница пользователя после авторизации</t>
-  </si>
-  <si>
     <t>Личный кабинет</t>
   </si>
   <si>
@@ -145,12 +133,6 @@
     <t>Страница решения задачи</t>
   </si>
   <si>
-    <t>Страница результатов</t>
-  </si>
-  <si>
-    <t>Вердикт</t>
-  </si>
-  <si>
     <t>Страница управления модератора</t>
   </si>
   <si>
@@ -164,6 +146,33 @@
   </si>
   <si>
     <t>Обязательно добавить краткое текстовое описание</t>
+  </si>
+  <si>
+    <t>Добавить необходимые сущности и связи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степень выполенния </t>
+  </si>
+  <si>
+    <t>Написали про один виток</t>
+  </si>
+  <si>
+    <t>Продлено до 11.10.15 14:00</t>
+  </si>
+  <si>
+    <t>Продлено до 11.10.15 0:00</t>
+  </si>
+  <si>
+    <t>Продлено до 10.10.15 14:00</t>
+  </si>
+  <si>
+    <t>Начертить диаграмму вариантов использования UML и сделать ее описание</t>
+  </si>
+  <si>
+    <t>Примечения</t>
+  </si>
+  <si>
+    <t>Внести корректировки в описание концептуальной модели БД</t>
   </si>
 </sst>
 </file>
@@ -182,12 +191,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +245,11 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,15 +554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="124.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -533,7 +571,7 @@
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,299 +591,387 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>42287.833333333336</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="F2" s="3">
+        <v>42287.083333333336</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="3">
         <v>42287.916666666664</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="3">
         <v>42287.833333333336</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="F4" s="3">
+        <v>42287.916666666664</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>42287.791666666664</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3">
         <v>42287.625</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="F6" s="3">
+        <v>42287.625</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="3">
         <v>42287.875</v>
       </c>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>42286.833333333336</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="F8" s="3">
+        <v>42287.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3">
         <v>42287.875</v>
       </c>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>42287.958333333336</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="3">
         <v>42287.958333333336</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="3">
         <v>42287.958333333336</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>42287.958333333336</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>42287.958333333336</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>14</v>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
       </c>
       <c r="E16" s="3">
         <v>42287.958333333336</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>15</v>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>42287.958333333336</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>16</v>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3">
-        <v>42287.958333333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="3">
-        <v>42287.958333333336</v>
+        <v>42288.583333333336</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Week6. DB_UML_interfaces design/Assignment6.xlsx
+++ b/Week6. DB_UML_interfaces design/Assignment6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Внести корректировки в описание концептуальной модели БД</t>
+  </si>
+  <si>
+    <t>Рецензирования материалов другой полгруппы</t>
+  </si>
+  <si>
+    <t>Акимутин, Бидзиля</t>
   </si>
 </sst>
 </file>
@@ -554,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,6 +980,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
